--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_0.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_0.xlsx
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.002368598255174805</v>
+        <v>-0.002368598255174806</v>
       </c>
       <c r="F2" t="n">
         <v>1.61076523727096</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3666527480625206</v>
+        <v>-0.3666527480625207</v>
       </c>
       <c r="H2" t="n">
         <v>0.009562939106069326</v>
@@ -513,7 +513,7 @@
         <v>0.0008766728691226663</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3666527480625206</v>
+        <v>0.3666527480625207</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.05662961512365802</v>
+        <v>0.05662961512365801</v>
       </c>
       <c r="F3" t="n">
         <v>16.86963852207009</v>
@@ -579,10 +579,10 @@
         <v>-0.2772847223885663</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04657604098673171</v>
+        <v>0.04657604098673178</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008055978032756305</v>
+        <v>0.008055978032756303</v>
       </c>
       <c r="J4" t="n">
         <v>0.2772847223885663</v>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.09825759795011398</v>
+        <v>0.09825759795011396</v>
       </c>
       <c r="F6" t="n">
         <v>31.98535213213399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2564715399870463</v>
+        <v>0.2564715399870462</v>
       </c>
       <c r="H6" t="n">
         <v>0.0612038114294343</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05135117884156286</v>
+        <v>0.05135117884156285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2564715399870463</v>
+        <v>0.2564715399870462</v>
       </c>
     </row>
     <row r="7">
@@ -684,16 +684,16 @@
         <v>117.5589742018701</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2558317051240842</v>
+        <v>0.2558317051240843</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06998678053365209</v>
+        <v>0.06998678053365205</v>
       </c>
       <c r="I7" t="n">
         <v>0.00988379069658195</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2558317051240842</v>
+        <v>0.2558317051240843</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.01525416638782839</v>
+        <v>-0.01525416638782838</v>
       </c>
       <c r="F8" t="n">
         <v>9.071225876682409</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9256508819228187</v>
+        <v>0.9256508819228186</v>
       </c>
       <c r="F9" t="n">
         <v>817.9510422970739</v>
@@ -762,7 +762,7 @@
         <v>0.1512446751346009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6351168098542684</v>
+        <v>0.6351168098542683</v>
       </c>
       <c r="J9" t="n">
         <v>0.2018710663818125</v>
@@ -795,10 +795,10 @@
         <v>0.195711534682996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1687095156351726</v>
+        <v>0.1687095156351725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001031458115560072</v>
+        <v>0.0001031458115560071</v>
       </c>
       <c r="J10" t="n">
         <v>0.195711534682996</v>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0002543944948688193</v>
+        <v>0.0002543944948688194</v>
       </c>
       <c r="F14" t="n">
         <v>1.547082334768819</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3087902249942026</v>
+        <v>0.3087902249942024</v>
       </c>
       <c r="F15" t="n">
         <v>123.7606292205625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1631019541504052</v>
+        <v>0.1631019541504051</v>
       </c>
       <c r="H15" t="n">
         <v>0.2577467157315522</v>
@@ -981,7 +981,7 @@
         <v>0.2696056134664082</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1631019541504052</v>
+        <v>0.1631019541504051</v>
       </c>
     </row>
     <row r="16">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.0005941924688323938</v>
+        <v>-0.0005941924688323939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.434846585234694</v>
+        <v>0.4348465852346939</v>
       </c>
       <c r="G16" t="n">
         <v>-0.162717793329085</v>
@@ -1083,7 +1083,7 @@
         <v>-0.1540965526919638</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2802971130165214</v>
+        <v>0.2802971130165216</v>
       </c>
       <c r="I18" t="n">
         <v>0.01038150250006602</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.001204798034382786</v>
+        <v>-0.001204798034382787</v>
       </c>
       <c r="F19" t="n">
         <v>0.8497138564682007</v>
@@ -1155,7 +1155,7 @@
         <v>-0.1450221013621128</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3099295340960387</v>
+        <v>0.3099295340960391</v>
       </c>
       <c r="I20" t="n">
         <v>0.001647923972802218</v>
@@ -1188,16 +1188,16 @@
         <v>0.1917658635507042</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1372670730233111</v>
+        <v>-0.137267073023311</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3318529911411718</v>
+        <v>0.3318529911411719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002417062625502979</v>
+        <v>0.000241706262550298</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1372670730233111</v>
+        <v>0.137267073023311</v>
       </c>
     </row>
     <row r="22">
@@ -1227,7 +1227,7 @@
         <v>0.135208153320529</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3392255027010745</v>
+        <v>0.3392255027010749</v>
       </c>
       <c r="I22" t="n">
         <v>0.001785838896075346</v>
@@ -1254,22 +1254,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.00268556551843244</v>
+        <v>-0.002685565518432442</v>
       </c>
       <c r="F23" t="n">
         <v>7.942692940094928</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1152094588432393</v>
+        <v>-0.1152094588432394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4067814609112382</v>
+        <v>0.4067814609112377</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003211030282751143</v>
+        <v>0.003211030282751144</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1152094588432393</v>
+        <v>0.1152094588432394</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.0009674446153724673</v>
+        <v>-0.0009674446153724675</v>
       </c>
       <c r="F24" t="n">
         <v>4.700379520102898</v>
@@ -1299,7 +1299,7 @@
         <v>-0.1144161333209199</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4288363407897196</v>
+        <v>0.4288363407897194</v>
       </c>
       <c r="I24" t="n">
         <v>0.001212430267540543</v>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.004260588794453139</v>
+        <v>-0.004260588794453138</v>
       </c>
       <c r="F25" t="n">
         <v>1.807603052071779</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.009253075899916044</v>
+        <v>0.009253075899916046</v>
       </c>
       <c r="F26" t="n">
         <v>75.49761824378341</v>
@@ -1371,7 +1371,7 @@
         <v>0.1114420599249668</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4269371551589923</v>
+        <v>0.4269371551589921</v>
       </c>
       <c r="I26" t="n">
         <v>0.01155415515670169</v>
@@ -1440,16 +1440,16 @@
         <v>16250425.39537324</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09653416760335957</v>
+        <v>-0.09653416760335962</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5048392628554008</v>
+        <v>0.5048392628554006</v>
       </c>
       <c r="I28" t="n">
         <v>23107.17578429916</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09653416760335957</v>
+        <v>0.09653416760335962</v>
       </c>
     </row>
     <row r="29">
@@ -1470,22 +1470,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-12.38655763751004</v>
+        <v>-12.38655763751003</v>
       </c>
       <c r="F29" t="n">
         <v>49023.14270742839</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08088023742120272</v>
+        <v>-0.08088023742120268</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5686824822004968</v>
+        <v>0.568682482200497</v>
       </c>
       <c r="I29" t="n">
         <v>21.58728616067932</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08088023742120272</v>
+        <v>0.08088023742120268</v>
       </c>
     </row>
     <row r="30">
@@ -1506,22 +1506,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.009132830293952593</v>
+        <v>0.009132830293952595</v>
       </c>
       <c r="F30" t="n">
         <v>62.73885310976532</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07147507492580489</v>
+        <v>0.0714750749258049</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6075315117421027</v>
+        <v>0.6075315117421025</v>
       </c>
       <c r="I30" t="n">
         <v>0.01767408405542059</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07147507492580489</v>
+        <v>0.0714750749258049</v>
       </c>
     </row>
     <row r="31">
@@ -1542,22 +1542,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.001703811168476651</v>
+        <v>-0.001703811168476649</v>
       </c>
       <c r="F31" t="n">
         <v>3.731288490184909</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06345631471502704</v>
+        <v>-0.06345631471502701</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6648954629114288</v>
+        <v>0.6648954629114289</v>
       </c>
       <c r="I31" t="n">
         <v>0.003908602743114909</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06345631471502704</v>
+        <v>0.06345631471502701</v>
       </c>
     </row>
     <row r="32">
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.0003586487043341004</v>
+        <v>0.0003586487043341005</v>
       </c>
       <c r="F32" t="n">
         <v>0.9414770582208697</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05212748497795438</v>
+        <v>0.05212748497795439</v>
       </c>
       <c r="H32" t="n">
         <v>0.7054562639541353</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009437863846965608</v>
+        <v>0.0009437863846965607</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05212748497795438</v>
+        <v>0.05212748497795439</v>
       </c>
     </row>
     <row r="33">
@@ -1620,7 +1620,7 @@
         <v>3.199444428358856</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.04451678165406302</v>
+        <v>-0.04451678165406304</v>
       </c>
       <c r="H33" t="n">
         <v>0.756419686993848</v>
@@ -1629,7 +1629,7 @@
         <v>0.003901834207505329</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04451678165406302</v>
+        <v>0.04451678165406304</v>
       </c>
     </row>
     <row r="34">
@@ -1662,7 +1662,7 @@
         <v>0.7841503099478859</v>
       </c>
       <c r="I34" t="n">
-        <v>0.007362436837348095</v>
+        <v>0.007362436837348094</v>
       </c>
       <c r="J34" t="n">
         <v>0.03891675040125736</v>
@@ -1692,16 +1692,16 @@
         <v>10.13136999966619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03732298727848683</v>
+        <v>0.03732298727848684</v>
       </c>
       <c r="H35" t="n">
         <v>0.7969256793703929</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001998479376883617</v>
+        <v>0.001998479376883616</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03732298727848683</v>
+        <v>0.03732298727848684</v>
       </c>
     </row>
     <row r="36">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.001760773036666603</v>
+        <v>0.001760773036666602</v>
       </c>
       <c r="F36" t="n">
-        <v>8.143014779184252</v>
+        <v>8.14301477918425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03680671837888717</v>
+        <v>0.03680671837888714</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7915997753480934</v>
+        <v>0.7915997753480937</v>
       </c>
       <c r="I36" t="n">
         <v>0.006629491722813069</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03680671837888717</v>
+        <v>0.03680671837888714</v>
       </c>
     </row>
     <row r="37">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-5.57657963968551</v>
+        <v>-5.576579639685508</v>
       </c>
       <c r="F37" t="n">
         <v>33707.92678225435</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0329029746350501</v>
+        <v>-0.03290297463505008</v>
       </c>
       <c r="H37" t="n">
         <v>0.8115128800299236</v>
@@ -1773,7 +1773,7 @@
         <v>23.26802914544891</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0329029746350501</v>
+        <v>0.03290297463505008</v>
       </c>
     </row>
     <row r="38">
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.00443057532975281</v>
+        <v>-0.004430575329752813</v>
       </c>
       <c r="F38" t="n">
         <v>32.95562268761446</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.02339304308517451</v>
+        <v>-0.02339304308517453</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8653830993985415</v>
+        <v>0.8653830993985416</v>
       </c>
       <c r="I38" t="n">
         <v>0.02600857790083115</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02339304308517451</v>
+        <v>0.02339304308517453</v>
       </c>
     </row>
     <row r="39">
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.673533899184507</v>
+        <v>3.673533899184514</v>
       </c>
       <c r="F39" t="n">
         <v>33030.40727777151</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0218581242991458</v>
+        <v>0.02185812429914585</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8753362550421473</v>
+        <v>0.8753362550421471</v>
       </c>
       <c r="I39" t="n">
         <v>23.30052550015783</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0218581242991458</v>
+        <v>0.02185812429914585</v>
       </c>
     </row>
     <row r="40">
@@ -1866,22 +1866,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.161958770277542e-05</v>
+        <v>5.161958770277529e-05</v>
       </c>
       <c r="F40" t="n">
         <v>1.656261877731824</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01294084343140226</v>
+        <v>0.01294084343140222</v>
       </c>
       <c r="H40" t="n">
-        <v>0.931977479455945</v>
+        <v>0.9319774794559451</v>
       </c>
       <c r="I40" t="n">
         <v>0.0006012972846738971</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01294084343140226</v>
+        <v>0.01294084343140222</v>
       </c>
     </row>
     <row r="41">
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.0002535762607383727</v>
+        <v>0.0002535762607383734</v>
       </c>
       <c r="F41" t="n">
-        <v>8.469447071343454</v>
+        <v>8.469447071343453</v>
       </c>
       <c r="G41" t="n">
-        <v>0.008750134160717576</v>
+        <v>0.0087501341607176</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9494452812687184</v>
+        <v>0.9494452812687183</v>
       </c>
       <c r="I41" t="n">
         <v>0.003980515508011013</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008750134160717576</v>
+        <v>0.0087501341607176</v>
       </c>
     </row>
     <row r="42">
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.0002960489387741538</v>
+        <v>-0.0002960489387741534</v>
       </c>
       <c r="F42" t="n">
         <v>7.942979892831021</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.008574827126560918</v>
+        <v>-0.008574827126560908</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9504568556604356</v>
+        <v>0.9504568556604358</v>
       </c>
       <c r="I42" t="n">
         <v>0.004742247690956016</v>
       </c>
       <c r="J42" t="n">
-        <v>0.008574827126560918</v>
+        <v>0.008574827126560908</v>
       </c>
     </row>
     <row r="43">
@@ -1974,22 +1974,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-3.071592611387702e-05</v>
+        <v>-3.071592611387746e-05</v>
       </c>
       <c r="F43" t="n">
         <v>79.68232591407032</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.001148370892955022</v>
+        <v>-0.001148370892955038</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9933609358215109</v>
+        <v>0.9933609358215107</v>
       </c>
       <c r="I43" t="n">
         <v>0.00367403438825587</v>
       </c>
       <c r="J43" t="n">
-        <v>0.001148370892955022</v>
+        <v>0.001148370892955038</v>
       </c>
     </row>
     <row r="44">
